--- a/project_calculations 20170304.xlsx
+++ b/project_calculations 20170304.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="M-Score" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="L-Severity" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Analysis" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="43">
   <si>
     <t>disease</t>
   </si>
@@ -106,6 +108,51 @@
   </si>
   <si>
     <t>360/100</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>Disease SF</t>
+  </si>
+  <si>
+    <t>Medication SF</t>
+  </si>
+  <si>
+    <t>Sum of SF</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Farmer</t>
   </si>
 </sst>
 </file>
@@ -115,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,8 +207,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +237,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,8 +252,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -266,8 +387,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -278,8 +469,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -320,6 +549,41 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -360,6 +624,41 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,7 +991,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C24"/>
+      <selection sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1439,14 +1738,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1461,235 +1761,218 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <f>SUM(C2:D2)*0.5</f>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>SUM(C3:D3)*0.5</f>
         <v>55</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>100</v>
-      </c>
-      <c r="L2">
-        <f>SUM(J2:K2)*0.5</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>70</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <f>SUM(C3:D3)*0.5</f>
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
-      <c r="K3">
-        <v>60</v>
       </c>
       <c r="L3">
         <f>SUM(J3:K3)*0.5</f>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <f>SUM(C4:D4)*0.5</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L4">
         <f>SUM(J4:K4)*0.5</f>
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <f>SUM(C5:D5)*0.5</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>80</v>
       </c>
       <c r="L5">
         <f>SUM(J5:K5)*0.5</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <f>SUM(C6:D6)*0.5</f>
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6">
+        <f>SUM(J6:K6)*0.5</f>
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="E6">
-        <f>SUM(E2:E5)</f>
+    <row r="7" spans="1:12">
+      <c r="E7">
+        <f>SUM(E3:E6)</f>
         <v>170</v>
       </c>
-      <c r="L6">
-        <f>SUM(L2:L5)</f>
+      <c r="L7">
+        <f>SUM(L3:L6)</f>
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="E7" s="3">
-        <f>E6/100</f>
+    <row r="8" spans="1:12">
+      <c r="E8" s="3">
+        <f>E7/100</f>
         <v>1.7</v>
       </c>
-      <c r="L7" s="2">
-        <f>L6/100</f>
+      <c r="L8" s="2">
+        <f>L7/100</f>
         <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <f>SUM(C9:D9)*0.5</f>
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <f>SUM(J9:K9)*0.5</f>
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
         <f>SUM(C10:D10)*0.5</f>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <f>SUM(J10:K10)*0.5</f>
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1697,172 +1980,168 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <f>SUM(C11:D11)*0.5</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L11">
         <f>SUM(J11:K11)*0.5</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12">
         <f>SUM(C12:D12)*0.5</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>40</v>
       </c>
       <c r="L12">
         <f>SUM(J12:K12)*0.5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <f>SUM(C13:D13)*0.5</f>
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <f>SUM(J13:K13)*0.5</f>
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="E13">
-        <f>SUM(E9:E12)</f>
+    <row r="14" spans="1:12">
+      <c r="E14">
+        <f>SUM(E10:E13)</f>
         <v>115</v>
       </c>
-      <c r="L13">
-        <f>SUM(L9:L12)</f>
+      <c r="L14">
+        <f>SUM(L10:L13)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="E14" s="2">
-        <f>E13/100</f>
+    <row r="15" spans="1:12">
+      <c r="E15" s="2">
+        <f>E14/100</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="L14" s="2">
-        <f>L13/100</f>
+      <c r="L15" s="2">
+        <f>L14/100</f>
         <v>2.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>100</v>
       </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <f>SUM(C17:D17)*0.5</f>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>SUM(C18:D18)*0.5</f>
         <v>55</v>
       </c>
-      <c r="G17" s="4" t="str">
-        <f t="shared" ref="G17:G23" si="0">CONCATENATE("(",C17,"+",D17,") * .5")</f>
+      <c r="G18" s="4" t="str">
+        <f t="shared" ref="G18:G24" si="0">CONCATENATE("(",C18,"+",D18,") * .5")</f>
         <v>(100+10) * .5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>13</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>100</v>
-      </c>
-      <c r="L17">
-        <f>SUM(J17:K17)*0.5</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E23" si="1">SUM(C18:D18)*0.5</f>
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>(10+10) * .5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <v>60</v>
-      </c>
-      <c r="K18">
-        <v>60</v>
       </c>
       <c r="L18">
         <f>SUM(J18:K18)*0.5</f>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1870,75 +2149,75 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E24" si="1">SUM(C19:D19)*0.5</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>(10+10) * .5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <f>SUM(J19:K19)*0.5</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-      <c r="E19">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G19" s="4" t="str">
+      <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>(10+30) * .5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19">
-        <v>70</v>
-      </c>
-      <c r="K19">
-        <v>80</v>
-      </c>
-      <c r="L19">
-        <f>SUM(J19:K19)*0.5</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>(30+30) * .5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
       </c>
       <c r="J20">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K20">
         <v>80</v>
       </c>
       <c r="L20">
         <f>SUM(J20:K20)*0.5</f>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1946,51 +2225,63 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>(30+10) * .5</v>
+        <v>(30+30) * .5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>80</v>
       </c>
       <c r="L21">
-        <f>SUM(L17:L20)</f>
-        <v>290</v>
+        <f>SUM(J21:K21)*0.5</f>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>(40+30) * .5</v>
-      </c>
-      <c r="L22" s="2">
-        <f>L21/100</f>
-        <v>2.9</v>
+        <v>(30+10) * .5</v>
+      </c>
+      <c r="L22">
+        <f>SUM(L18:L21)</f>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1998,47 +2289,73 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>(40+30) * .5</v>
+      </c>
+      <c r="L23" s="2">
+        <f>L22/100</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>(40+10) * .5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="E24">
-        <f>SUM(E17:E23)</f>
+    <row r="25" spans="1:12">
+      <c r="E25">
+        <f>SUM(E18:E24)</f>
         <v>195</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="E25" s="2">
-        <f>E24/100</f>
+    <row r="26" spans="1:12">
+      <c r="E26" s="2">
+        <f>E25/100</f>
         <v>1.95</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="H30">
+    <row r="31" spans="1:12">
+      <c r="H31">
         <f>290-95</f>
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="H31">
-        <f>H30/3</f>
+    <row r="32" spans="1:12">
+      <c r="H32">
+        <f>H31/3</f>
         <v>65</v>
       </c>
     </row>
@@ -2055,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2235,6 +2552,1135 @@
       <c r="E10" s="2">
         <f>E9/100</f>
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" ht="16" thickBot="1"/>
+    <row r="28" spans="9:13" ht="16" thickBot="1">
+      <c r="I28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" ht="17" thickTop="1" thickBot="1">
+      <c r="I29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="10">
+        <v>100</v>
+      </c>
+      <c r="L29" s="10">
+        <v>10</v>
+      </c>
+      <c r="M29" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="9:13" ht="16" thickBot="1">
+      <c r="I30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="13">
+        <v>70</v>
+      </c>
+      <c r="L30" s="13">
+        <v>30</v>
+      </c>
+      <c r="M30" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="9:13" ht="16" thickBot="1">
+      <c r="I31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="10">
+        <v>30</v>
+      </c>
+      <c r="L31" s="10">
+        <v>10</v>
+      </c>
+      <c r="M31" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="9:13" ht="16" thickBot="1">
+      <c r="I32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="13">
+        <v>60</v>
+      </c>
+      <c r="L32" s="13">
+        <v>30</v>
+      </c>
+      <c r="M32" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" ht="16" thickBot="1">
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" ht="16" thickBot="1">
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="13">
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <f>-0.5*LOG(0.5,2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2:G2)*(1/2)</f>
+        <v>55</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>100</v>
+      </c>
+      <c r="S2">
+        <f>SUM(Q2:R2)*(1/4)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f>SUM(F3:G3)*(1/2)</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <v>60</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S5" si="0">SUM(Q3:R3)*(1/4)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <f>SUM(F4:G4)*(1/2)</f>
+        <v>20</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>70</v>
+      </c>
+      <c r="R4">
+        <v>80</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <f>SUM(F5:G5)*(1/2)</f>
+        <v>30</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="19">
+        <v>30</v>
+      </c>
+      <c r="G6" s="19">
+        <v>10</v>
+      </c>
+      <c r="H6" s="19">
+        <f>SUM(F6:G6)*(1/1)</f>
+        <v>40</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="S6">
+        <f>SUM(S2:S5)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <f>SUM(F7:G7)*(1/2)</f>
+        <v>35</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="S7" s="18">
+        <f>S6/100</f>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>SUM(F8:G8)*(1/2)</f>
+        <v>25</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="H9">
+        <f>SUM(H2:H8)</f>
+        <v>215</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="H10" s="18">
+        <f>H9/100</f>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f>SUM(F22:G22)*(1-(2/7))</f>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="I22">
+        <f>SUM(F22:G22)</f>
+        <v>110</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <f>SUM(Q22:R22)*(1-(1/4))</f>
+        <v>150</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:T24" si="1">SUM(Q22:R22)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H28" si="2">SUM(F23:G23)*(1-(2/7))</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I28" si="3">SUM(F23:G23)</f>
+        <v>20</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <v>60</v>
+      </c>
+      <c r="R23">
+        <v>60</v>
+      </c>
+      <c r="S23">
+        <f>SUM(Q23:R23)*(1-(3/4))</f>
+        <v>30</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24">
+        <v>70</v>
+      </c>
+      <c r="R24">
+        <v>80</v>
+      </c>
+      <c r="S24">
+        <f>SUM(Q24:R24)*(1-(3/4))</f>
+        <v>37.5</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+      <c r="R25">
+        <v>80</v>
+      </c>
+      <c r="S25">
+        <f>SUM(Q25:R25)*(1-(3/4))</f>
+        <v>27.5</v>
+      </c>
+      <c r="T25">
+        <f>SUM(Q25:R25)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="19">
+        <v>30</v>
+      </c>
+      <c r="G26" s="19">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <f>SUM(F26:G26)*(1-(1/7))</f>
+        <v>34.285714285714292</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="S26">
+        <f>SUM(S22:S25)</f>
+        <v>245</v>
+      </c>
+      <c r="T26">
+        <f>SUM(T22:T25)</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="S27" s="18">
+        <f>S26/100</f>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="H29">
+        <f>SUM(H22:H28)</f>
+        <v>284.28571428571428</v>
+      </c>
+      <c r="I29">
+        <f>SUM(I22:I28)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="H30" s="18">
+        <f>H29/100</f>
+        <v>2.842857142857143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <f>SUM(F37:G37)*(1-(2/7))</f>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="I37">
+        <f>SUM(F37:G37)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <f>SUM(F38:G38)*(1-(2/7))</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="I38">
+        <f>SUM(F38:G38)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H40" si="4">SUM(F39:G39)*(1-(2/7))</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I38:I44" si="5">SUM(F39:G39)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="19">
+        <v>30</v>
+      </c>
+      <c r="G41" s="19">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <f>SUM(F41:G41)*(1-(1/7))</f>
+        <v>34.285714285714292</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H44" si="6">SUM(F42:G42)*(1-(2/7))</f>
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <f>SUM(F44:G44)*(1-(1/7))</f>
+        <v>94.285714285714292</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="H45">
+        <f>SUM(H37:H44)</f>
+        <v>378.57142857142856</v>
+      </c>
+      <c r="I45">
+        <f>SUM(I37:I44)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="H46" s="18">
+        <f>H45/100</f>
+        <v>3.7857142857142856</v>
       </c>
     </row>
   </sheetData>

--- a/project_calculations 20170304.xlsx
+++ b/project_calculations 20170304.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="M-Score" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Analysis" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="73">
   <si>
     <t>disease</t>
   </si>
@@ -153,6 +154,96 @@
   </si>
   <si>
     <t>Farmer</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>(laywer, la)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>(hiv, vitamins)</t>
+  </si>
+  <si>
+    <t>Lecture 1</t>
+  </si>
+  <si>
+    <t>Lecture 2</t>
+  </si>
+  <si>
+    <t>Lecture 3</t>
+  </si>
+  <si>
+    <t>Lecture 4</t>
+  </si>
+  <si>
+    <t>Finalization on privacy metrics</t>
+  </si>
+  <si>
+    <t>Lecture 5</t>
+  </si>
+  <si>
+    <t>Design application</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Proof of concept of application</t>
+  </si>
+  <si>
+    <t>Lecture 6</t>
+  </si>
+  <si>
+    <t>Lecture 7</t>
+  </si>
+  <si>
+    <t>Finalize paper</t>
+  </si>
+  <si>
+    <t>Present project</t>
+  </si>
+  <si>
+    <t>Analysis on metrics</t>
+  </si>
+  <si>
+    <t>Design of application</t>
+  </si>
+  <si>
+    <t>Design of application and analysis of metrics</t>
+  </si>
+  <si>
+    <t>Proposal Paper and build slides</t>
+  </si>
+  <si>
+    <t>Finalizing/cleaning up paper and build slides</t>
+  </si>
+  <si>
+    <t>Writing Phases</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Research Analysis</t>
+  </si>
+  <si>
+    <t>Research Presentation</t>
+  </si>
+  <si>
+    <t>Finish Paper</t>
   </si>
 </sst>
 </file>
@@ -305,7 +396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -457,8 +548,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -507,8 +626,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -584,6 +710,20 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -659,6 +799,20 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2697,19 +2851,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S7" sqref="L1:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="D1" t="s">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2931,28 +3085,28 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="19" t="s">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="19">
-        <v>30</v>
-      </c>
-      <c r="G6" s="19">
-        <v>10</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
         <f>SUM(F6:G6)*(1/1)</f>
         <v>40</v>
       </c>
@@ -2997,7 +3151,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="S7" s="18">
+      <c r="S7">
         <f>S6/100</f>
         <v>1.45</v>
       </c>
@@ -3046,7 +3200,7 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="H10" s="18">
+      <c r="H10">
         <f>H9/100</f>
         <v>2.15</v>
       </c>
@@ -3681,6 +3835,328 @@
       <c r="H46" s="18">
         <f>H45/100</f>
         <v>3.7857142857142856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <f>SUM(F52:G52)*0.5</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ref="H53:H59" si="7">SUM(F53:G53)*0.5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="19">
+        <v>30</v>
+      </c>
+      <c r="G56" s="19">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>40</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>40</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="H60">
+        <f>SUM(H52:H59)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="H61" s="18">
+        <f>H60/100</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="20">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="B70" s="20">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <f>-A70 * LOG(A70,2)</f>
+        <v>0.51638712058788683</v>
+      </c>
+      <c r="B71">
+        <f>-B70 * LOG(B70,2)</f>
+        <v>0.34673344797874411</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <f>A71-B71</f>
+        <v>0.16965367260914271</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="F74" t="s">
+        <v>47</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <f>0*LOG(1,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82">
+        <f>1-(6/7)</f>
+        <v>0.1428571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -3692,4 +4168,130 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>